--- a/页面命名规则.xlsx
+++ b/页面命名规则.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>登陆页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新增员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salaryCheck.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salaryManager.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salaryROPManager.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivationCheck.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivationManager.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivationAdd.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工资查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +167,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>奖惩管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>培训查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,71 +187,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增员工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖惩管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salaryCheck.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salaryManager.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salaryROPManager.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivationCheck.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivationManager.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivationAdd.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attendance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultivation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面名称</t>
+    <t>公告查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiche</t>
+  </si>
+  <si>
+    <t>afficheCheck.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afficheManager.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>afficheAdd.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>私信系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,15 +591,15 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -580,10 +618,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -599,7 +637,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -607,7 +645,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -642,7 +680,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -669,56 +707,94 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/页面命名规则.xlsx
+++ b/页面命名规则.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Git\HRMS_SSH-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9630"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>登陆页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,41 +192,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公告查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affiche</t>
-  </si>
-  <si>
-    <t>afficheCheck.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afficheManager.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>afficheAdd.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
-    <t>私信系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>message.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,12 +260,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,40 +742,13 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
         <v>45</v>
-      </c>
-      <c r="F30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
